--- a/error_barchart.xlsx
+++ b/error_barchart.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -125,13 +125,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -153,7 +153,7 @@
             <v>group 0 mean</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -190,7 +190,7 @@
             <v>group 1 mean</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -227,7 +227,7 @@
             <v>group 2 mean</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -264,7 +264,7 @@
             <v>group 3 mean</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -301,7 +301,7 @@
             <v>group 4 mean</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -338,7 +338,7 @@
             <v>group 5 mean</v>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -381,8 +381,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -408,8 +408,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:bodyPr/>
+              <a:p>
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -435,7 +435,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>1</col>
@@ -450,9 +450,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -824,349 +824,349 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>csf</t>
+          <t>pqo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6896965677546424</v>
+        <v>0.7742949193477691</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2598869073070396</v>
+        <v>0.8382812302253656</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6396246504299569</v>
+        <v>1.073584484849512</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9794488554652686</v>
+        <v>0.1879839400781545</v>
       </c>
       <c r="F3" t="n">
-        <v>1.164061063373962</v>
+        <v>0.5788868602473476</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7255276473885341</v>
+        <v>1.387429359812647</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004390003210577001</v>
+        <v>0.02137769822078633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.154275954591275</v>
+        <v>0.0218844597601158</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01811877321708572</v>
+        <v>0.06005564481823567</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0401908371897975</v>
+        <v>0.04410598328103399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1239502698633123</v>
+        <v>0.08100678732426857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09297254229737213</v>
+        <v>0.315318967813532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tea</t>
+          <t>ser</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7001762699496834</v>
+        <v>1.459575749764185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2741702320627115</v>
+        <v>2.506905833902244</v>
       </c>
       <c r="D4" t="n">
-        <v>2.054663340295786</v>
+        <v>0.991412719879091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9010002174678571</v>
+        <v>0.5084911793120439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7994523555989375</v>
+        <v>0.7757897353562416</v>
       </c>
       <c r="G4" t="n">
-        <v>1.08631728094644</v>
+        <v>1.04714075760009</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0849517011953608</v>
+        <v>0.140909008421497</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1282793893855811</v>
+        <v>0.1401194294575744</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01877569607559219</v>
+        <v>0.09140739970841508</v>
       </c>
       <c r="K4" t="n">
-        <v>0.007932245123065614</v>
+        <v>0.1195925802413964</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01286455638382102</v>
+        <v>0.0398358322215302</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08679981983400813</v>
+        <v>0.07901309810133539</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>iwk</t>
+          <t>pii</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9053442005580781</v>
+        <v>0.979154747118125</v>
       </c>
       <c r="C5" t="n">
-        <v>1.432257396588127</v>
+        <v>1.279678262902278</v>
       </c>
       <c r="D5" t="n">
-        <v>1.682238834547951</v>
+        <v>1.141508193427954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.805763535558921</v>
+        <v>0.3124339645259251</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5745533154159818</v>
+        <v>2.191744928697804</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6395986347157624</v>
+        <v>1.747077513162068</v>
       </c>
       <c r="H5" t="n">
-        <v>0.125249149976506</v>
+        <v>0.08792513982546184</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05264071279018212</v>
+        <v>0.1453581922673633</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05030623712335106</v>
+        <v>0.03106384244990457</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1175657706789648</v>
+        <v>0.04760703943512653</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1287894420161592</v>
+        <v>0.1319687364514704</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004643100539149437</v>
+        <v>0.1528263473402037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>kqm</t>
+          <t>dgb</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1132734714574625</v>
+        <v>0.2800837808460375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1650305688186774</v>
+        <v>0.757955910307422</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7223961994371797</v>
+        <v>1.413738244069504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5804646636757884</v>
+        <v>1.966734628263863</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02635881789239226</v>
+        <v>1.824065728192312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08763045897576437</v>
+        <v>0.5276882341481117</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07755806329221437</v>
+        <v>0.01418250347293448</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08187975860443268</v>
+        <v>0.04255310191381759</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06262053659110199</v>
+        <v>0.07109747941712559</v>
       </c>
       <c r="K6" t="n">
-        <v>0.109138412855992</v>
+        <v>0.1669168569853847</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2201507196226482</v>
+        <v>0.06051747842621165</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1880932180391208</v>
+        <v>0.02905380166502014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qzq</t>
+          <t>tkj</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.507470163409544</v>
+        <v>1.180094359472463</v>
       </c>
       <c r="C7" t="n">
-        <v>1.094261956399968</v>
+        <v>0.4358496774737538</v>
       </c>
       <c r="D7" t="n">
-        <v>0.650187692810562</v>
+        <v>0.3482627291613223</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9357394697492937</v>
+        <v>2.156959764972393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6536131744793918</v>
+        <v>0.5405729841691794</v>
       </c>
       <c r="G7" t="n">
-        <v>1.058694024899259</v>
+        <v>1.352589503602797</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002179019875272929</v>
+        <v>0.1201031656335914</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07458581958545916</v>
+        <v>0.1347083351840679</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08885305131476899</v>
+        <v>0.1437758288010266</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04042243327155987</v>
+        <v>0.02163983410725608</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0284508964710688</v>
+        <v>0.1493310696534896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02266944532561904</v>
+        <v>0.01961275785292241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>uin</t>
+          <t>lkb</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.60541960741234</v>
+        <v>0.0812996525711754</v>
       </c>
       <c r="C8" t="n">
-        <v>1.633163207665917</v>
+        <v>1.260348193394468</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2682042331226046</v>
+        <v>0.1153712629304537</v>
       </c>
       <c r="E8" t="n">
-        <v>2.101068806196567</v>
+        <v>0.1959624621561741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2655989650353542</v>
+        <v>0.1230278102629334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.165399368429808</v>
+        <v>0.1605915678882676</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1166295762674428</v>
+        <v>0.05643611539989921</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01205882378204285</v>
+        <v>0.2336153854921392</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08048938802007854</v>
+        <v>0.0271721510842567</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1471888274416835</v>
+        <v>0.02154409100174149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001166335877111774</v>
+        <v>0.03040676897559239</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1193351091987589</v>
+        <v>0.03579905980913589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>uhp</t>
+          <t>dnj</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9180960457145153</v>
+        <v>1.125409657641065</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8011673207622</v>
+        <v>1.226678745830517</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3069638120424077</v>
+        <v>0.205619649954668</v>
       </c>
       <c r="E9" t="n">
-        <v>0.199754768358137</v>
+        <v>0.128162644177794</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4870983625501258</v>
+        <v>0.05473556253678998</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8082964754575009</v>
+        <v>0.3427953269002305</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07072809336814348</v>
+        <v>0.01171752803194175</v>
       </c>
       <c r="I9" t="n">
-        <v>0.139860566040451</v>
+        <v>0.06667104688631123</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05164507581607562</v>
+        <v>0.1484064903132165</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1099471971874462</v>
+        <v>0.02985390196989161</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01794150459897164</v>
+        <v>0.1458903738117772</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007265038505674103</v>
+        <v>0.04883222465609828</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fov</t>
+          <t>pyp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.456330601456011</v>
+        <v>0.7658069162491604</v>
       </c>
       <c r="C10" t="n">
-        <v>1.026221632138659</v>
+        <v>0.1429481136174646</v>
       </c>
       <c r="D10" t="n">
-        <v>1.159070713869135</v>
+        <v>0.4850873112446982</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0993663472114609</v>
+        <v>0.5420490233140892</v>
       </c>
       <c r="F10" t="n">
-        <v>1.04775967636521</v>
+        <v>0.5125471604104959</v>
       </c>
       <c r="G10" t="n">
-        <v>2.006128294261487</v>
+        <v>0.5768518753339258</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07861307756343731</v>
+        <v>0.08969884070616657</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05782576378700111</v>
+        <v>0.03255245059863345</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08119253758120464</v>
+        <v>0.1160558355585635</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3378825831188453</v>
+        <v>0.04339296554392881</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02123232131528022</v>
+        <v>0.007113522868735974</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06180884219527415</v>
+        <v>0.08642958364775895</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>